--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BCBBFD6-AE02-434D-B344-A9FE9BE5B925}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BEBC2-688B-4D3D-859C-A84AA233C73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{82FD7B4E-FCDA-4BD8-8B04-171F58826536}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{82FD7B4E-FCDA-4BD8-8B04-171F58826536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>X</t>
   </si>
@@ -38,14 +38,30 @@
   <si>
     <t>Front</t>
   </si>
+  <si>
+    <t>4    5</t>
+  </si>
+  <si>
+    <t>17 16</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -415,14 +431,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -475,13 +490,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -997,40 +1012,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBBF6AA-5732-43A9-80DF-EECE7BB5C40A}">
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.26953125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="39" max="39" width="5.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="10">
         <v>1</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>0</v>
       </c>
       <c r="N2">
@@ -1043,25 +1061,25 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="35">
+      <c r="D3" s="7"/>
+      <c r="E3" s="9">
         <v>4</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12">
+      <c r="F3" s="8"/>
+      <c r="G3" s="11">
         <v>5</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>6</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>1</v>
       </c>
       <c r="N3">
@@ -1076,34 +1094,32 @@
       <c r="X3">
         <v>0</v>
       </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="11">
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="10">
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>11</v>
-      </c>
-      <c r="AQ3" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="D4" s="10">
+        <v>13</v>
+      </c>
+      <c r="AQ3" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="9">
         <v>7</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>8</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>2</v>
       </c>
       <c r="N4">
@@ -1115,28 +1131,26 @@
       <c r="P4">
         <v>0.5</v>
       </c>
-      <c r="X4" s="25"/>
+      <c r="X4" s="24"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="26"/>
+      <c r="AF4" s="25"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="2"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="3"/>
     </row>
-    <row r="5" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>3</v>
       </c>
       <c r="N5">
@@ -1148,44 +1162,46 @@
       <c r="P5">
         <v>0.5</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="9">
         <v>2</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="32">
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="31">
         <v>3</v>
       </c>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="29">
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="12">
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="28">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="11">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>18</v>
+      </c>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="11">
         <v>15</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AQ5" s="11">
         <v>14</v>
       </c>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="12">
-        <v>13</v>
-      </c>
-      <c r="AQ5" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+    </row>
+    <row r="6" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="M6" s="37">
+      <c r="M6" s="13">
         <v>4</v>
       </c>
       <c r="N6">
@@ -1197,33 +1213,26 @@
       <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="X6" s="6"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="34">
-        <v>6</v>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="33">
+        <v>8</v>
       </c>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="31">
-        <v>7</v>
-      </c>
-      <c r="AD6" s="30"/>
-      <c r="AF6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AL6" s="10">
-        <v>17</v>
+      <c r="AC6" s="30">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="29"/>
+      <c r="AL6" s="9">
+        <v>21</v>
       </c>
       <c r="AM6" s="4"/>
-      <c r="AN6" s="12">
-        <v>16</v>
-      </c>
-      <c r="AQ6" s="6"/>
-    </row>
-    <row r="7" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="AN6" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>5</v>
       </c>
       <c r="N7">
@@ -1235,27 +1244,20 @@
       <c r="P7">
         <v>0.5</v>
       </c>
-      <c r="X7" s="6"/>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="16"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="20"/>
-      <c r="AF7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
+      <c r="AC7" s="19"/>
       <c r="AM7" s="4"/>
-      <c r="AQ7" s="6"/>
-    </row>
-    <row r="8" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+    </row>
+    <row r="8" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>10</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>6</v>
       </c>
       <c r="N8">
@@ -1267,26 +1269,13 @@
       <c r="P8">
         <v>0.5</v>
       </c>
-      <c r="X8" s="6"/>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="16"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="20"/>
-      <c r="AF8" s="6"/>
-      <c r="AI8" s="6"/>
+      <c r="AC8" s="19"/>
       <c r="AM8" s="4"/>
-      <c r="AQ8" s="6"/>
-    </row>
-    <row r="9" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="M9" s="14">
+    </row>
+    <row r="9" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="13">
         <v>7</v>
       </c>
       <c r="N9">
@@ -1298,26 +1287,13 @@
       <c r="P9">
         <v>0.5</v>
       </c>
-      <c r="X9" s="6"/>
-      <c r="AA9" s="17"/>
+      <c r="AA9" s="16"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="20"/>
-      <c r="AF9" s="6"/>
-      <c r="AI9" s="6"/>
+      <c r="AC9" s="19"/>
       <c r="AM9" s="4"/>
-      <c r="AQ9" s="6"/>
-    </row>
-    <row r="10" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="M10" s="14">
+    </row>
+    <row r="10" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M10" s="13">
         <v>8</v>
       </c>
       <c r="N10">
@@ -1329,32 +1305,23 @@
       <c r="P10">
         <v>0.5</v>
       </c>
-      <c r="X10" s="6"/>
-      <c r="AA10" s="19">
-        <v>8</v>
+      <c r="AA10" s="18">
+        <v>10</v>
       </c>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="21">
-        <v>9</v>
-      </c>
-      <c r="AF10" s="6"/>
-      <c r="AI10" s="6"/>
+      <c r="AC10" s="20">
+        <v>11</v>
+      </c>
       <c r="AL10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM10" s="5"/>
-      <c r="AN10" s="11">
-        <v>18</v>
-      </c>
-      <c r="AQ10" s="6"/>
-    </row>
-    <row r="11" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="M11" s="14">
+      <c r="AN10" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M11" s="13">
         <v>9</v>
       </c>
       <c r="N11">
@@ -1366,32 +1333,10 @@
       <c r="P11">
         <v>0.5</v>
       </c>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-    </row>
-    <row r="12" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="M12" s="15">
+      <c r="AB11" s="17"/>
+    </row>
+    <row r="12" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M12" s="14">
         <v>10</v>
       </c>
       <c r="N12">
@@ -1404,31 +1349,132 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M15" s="36">
+      <c r="Q14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="15">
         <v>0</v>
       </c>
       <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16">
         <v>2</v>
       </c>
-      <c r="O15">
+      <c r="Q16">
+        <v>12</v>
+      </c>
+      <c r="R16">
+        <v>19</v>
+      </c>
+      <c r="S16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="36">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17">
+        <v>20</v>
+      </c>
+      <c r="S17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="36">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M16" s="36">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+      <c r="R18">
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="36">
         <v>5</v>
       </c>
-      <c r="O16">
-        <v>1</v>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>23</v>
+      </c>
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="S19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="36">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>23</v>
+      </c>
+      <c r="R20">
+        <v>16</v>
+      </c>
+      <c r="S20">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BEBC2-688B-4D3D-859C-A84AA233C73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B1DEB-943C-48F3-BA0C-7417CC8B6C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{82FD7B4E-FCDA-4BD8-8B04-171F58826536}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{82FD7B4E-FCDA-4BD8-8B04-171F58826536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>X</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Front</t>
-  </si>
-  <si>
-    <t>4    5</t>
-  </si>
-  <si>
-    <t>17 16</t>
   </si>
   <si>
     <t>Back</t>
@@ -431,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -498,6 +492,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,18 +1009,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBBF6AA-5732-43A9-80DF-EECE7BB5C40A}">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.26953125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="39" max="39" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1040,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6"/>
@@ -1061,7 +1058,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1105,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ3" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="9">
         <v>7</v>
       </c>
@@ -1148,7 +1145,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="3"/>
     </row>
-    <row r="5" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="4"/>
       <c r="M5" s="13">
         <v>3</v>
@@ -1170,36 +1167,36 @@
         <v>3</v>
       </c>
       <c r="AA5" s="34"/>
-      <c r="AB5" s="9" t="s">
+      <c r="AB5" s="9">
         <v>4</v>
       </c>
       <c r="AC5" s="8"/>
       <c r="AD5" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE5" s="27"/>
       <c r="AF5" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK5" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL5" s="7"/>
-      <c r="AM5" s="35" t="s">
-        <v>5</v>
+      <c r="AM5" s="35">
+        <v>1615</v>
       </c>
       <c r="AN5" s="8"/>
       <c r="AO5" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ5" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="4"/>
       <c r="M6" s="13">
         <v>4</v>
@@ -1213,24 +1210,30 @@
       <c r="P6">
         <v>0.5</v>
       </c>
+      <c r="Y6" s="37">
+        <v>14</v>
+      </c>
       <c r="Z6" s="32"/>
       <c r="AA6" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD6" s="29"/>
+      <c r="AE6" s="11">
+        <v>17</v>
+      </c>
       <c r="AL6" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM6" s="4"/>
       <c r="AN6" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="4"/>
       <c r="M7" s="13">
         <v>5</v>
@@ -1244,12 +1247,18 @@
       <c r="P7">
         <v>0.5</v>
       </c>
+      <c r="Z7" s="9">
+        <v>19</v>
+      </c>
       <c r="AA7" s="16"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="19"/>
+      <c r="AD7" s="11">
+        <v>20</v>
+      </c>
       <c r="AM7" s="4"/>
     </row>
-    <row r="8" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>9</v>
       </c>
@@ -1269,12 +1278,13 @@
       <c r="P8">
         <v>0.5</v>
       </c>
+      <c r="Z8" s="9"/>
       <c r="AA8" s="16"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="19"/>
       <c r="AM8" s="4"/>
     </row>
-    <row r="9" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M9" s="13">
         <v>7</v>
       </c>
@@ -1292,7 +1302,7 @@
       <c r="AC9" s="19"/>
       <c r="AM9" s="4"/>
     </row>
-    <row r="10" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M10" s="13">
         <v>8</v>
       </c>
@@ -1306,21 +1316,21 @@
         <v>0.5</v>
       </c>
       <c r="AA10" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" s="5"/>
       <c r="AN10" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M11" s="13">
         <v>9</v>
       </c>
@@ -1335,7 +1345,7 @@
       </c>
       <c r="AB11" s="17"/>
     </row>
-    <row r="12" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M12" s="14">
         <v>10</v>
       </c>
@@ -1349,15 +1359,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M15" s="15">
         <v>0</v>
       </c>
@@ -1365,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q15">
         <v>12</v>
@@ -1377,12 +1387,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M16" s="15">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O16">
         <v>2</v>
@@ -1397,55 +1407,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M17" s="36">
         <v>3</v>
       </c>
       <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="36">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="36">
         <v>4</v>
       </c>
-      <c r="O17">
-        <v>8</v>
-      </c>
-      <c r="Q17">
-        <v>15</v>
-      </c>
-      <c r="R17">
-        <v>20</v>
-      </c>
-      <c r="S17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M18" s="36">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>6</v>
-      </c>
-      <c r="O18">
-        <v>9</v>
-      </c>
-      <c r="Q18">
-        <v>18</v>
-      </c>
-      <c r="R18">
-        <v>17</v>
-      </c>
-      <c r="S18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M19" s="36">
-        <v>5</v>
-      </c>
       <c r="N19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q19">
         <v>23</v>
@@ -1457,15 +1449,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M20" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q20">
         <v>23</v>
@@ -1475,6 +1467,16 @@
       </c>
       <c r="S20">
         <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="36">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\Initials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B1DEB-943C-48F3-BA0C-7417CC8B6C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D91AD-7359-4B4E-A3E6-588BFA1DDD74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{82FD7B4E-FCDA-4BD8-8B04-171F58826536}"/>
   </bookViews>
@@ -487,14 +487,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBBF6AA-5732-43A9-80DF-EECE7BB5C40A}">
   <dimension ref="A1:AQ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1102,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ3" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1167,33 +1167,29 @@
         <v>3</v>
       </c>
       <c r="AA5" s="34"/>
-      <c r="AB5" s="9">
-        <v>4</v>
-      </c>
+      <c r="AB5" s="9"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE5" s="27"/>
       <c r="AF5" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK5" s="9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL5" s="7"/>
-      <c r="AM5" s="35">
-        <v>1615</v>
-      </c>
+      <c r="AM5" s="37"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,27 +1206,27 @@
       <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="Y6" s="37">
-        <v>14</v>
+      <c r="Y6" s="36">
+        <v>13</v>
       </c>
       <c r="Z6" s="32"/>
       <c r="AA6" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD6" s="29"/>
       <c r="AE6" s="11">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="9">
         <v>17</v>
-      </c>
-      <c r="AL6" s="9">
-        <v>20</v>
       </c>
       <c r="AM6" s="4"/>
       <c r="AN6" s="11">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1248,13 +1244,13 @@
         <v>0.5</v>
       </c>
       <c r="Z7" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AA7" s="16"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="19"/>
       <c r="AD7" s="11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AM7" s="4"/>
     </row>
@@ -1316,18 +1312,18 @@
         <v>0.5</v>
       </c>
       <c r="AA10" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AM10" s="5"/>
       <c r="AN10" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1377,15 +1373,6 @@
       <c r="O15">
         <v>5</v>
       </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
-      <c r="R15">
-        <v>14</v>
-      </c>
-      <c r="S15">
-        <v>19</v>
-      </c>
     </row>
     <row r="16" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M16" s="15">
@@ -1397,87 +1384,56 @@
       <c r="O16">
         <v>2</v>
       </c>
-      <c r="Q16">
-        <v>12</v>
-      </c>
-      <c r="R16">
-        <v>19</v>
-      </c>
-      <c r="S16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M17" s="36">
+    </row>
+    <row r="17" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="35">
         <v>3</v>
       </c>
       <c r="N17">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="35">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="35">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>9</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="35">
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+      <c r="O20">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M18" s="36">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>18</v>
-      </c>
-      <c r="O18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="36">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>7</v>
-      </c>
-      <c r="O19">
-        <v>19</v>
-      </c>
-      <c r="Q19">
-        <v>23</v>
-      </c>
-      <c r="R19">
-        <v>17</v>
-      </c>
-      <c r="S19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="36">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>19</v>
-      </c>
-      <c r="O20">
-        <v>16</v>
-      </c>
-      <c r="Q20">
-        <v>23</v>
-      </c>
-      <c r="R20">
-        <v>16</v>
-      </c>
-      <c r="S20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M21" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M22" s="36">
-        <v>5</v>
-      </c>
+    <row r="21" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="35"/>
+    </row>
+    <row r="22" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\Initials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D91AD-7359-4B4E-A3E6-588BFA1DDD74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04106800-E8F9-4BC8-84EE-CB8BACFF73C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{82FD7B4E-FCDA-4BD8-8B04-171F58826536}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{82FD7B4E-FCDA-4BD8-8B04-171F58826536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>X</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Back</t>
+  </si>
+  <si>
+    <t>Top</t>
   </si>
 </sst>
 </file>
@@ -70,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -421,11 +424,91 @@
         <color theme="9"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -487,15 +570,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,15 +1107,15 @@
   <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.26953125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="39" max="39" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1037,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6"/>
@@ -1058,7 +1153,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1108,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D4" s="9">
         <v>7</v>
       </c>
@@ -1145,7 +1240,7 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="3"/>
     </row>
-    <row r="5" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E5" s="4"/>
       <c r="M5" s="13">
         <v>3</v>
@@ -1183,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="AL5" s="7"/>
-      <c r="AM5" s="37"/>
+      <c r="AM5" s="35"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="11">
         <v>13</v>
@@ -1192,13 +1287,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E6" s="4"/>
       <c r="M6" s="13">
         <v>4</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -1206,7 +1301,7 @@
       <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="Y6" s="36">
+      <c r="Y6" s="9">
         <v>13</v>
       </c>
       <c r="Z6" s="32"/>
@@ -1229,13 +1324,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E7" s="4"/>
       <c r="M7" s="13">
         <v>5</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1254,7 +1349,7 @@
       </c>
       <c r="AM7" s="4"/>
     </row>
-    <row r="8" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8">
         <v>9</v>
       </c>
@@ -1266,10 +1361,10 @@
         <v>6</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -1280,12 +1375,12 @@
       <c r="AC8" s="19"/>
       <c r="AM8" s="4"/>
     </row>
-    <row r="9" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M9" s="13">
         <v>7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1298,15 +1393,15 @@
       <c r="AC9" s="19"/>
       <c r="AM9" s="4"/>
     </row>
-    <row r="10" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M10" s="13">
         <v>8</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -1326,12 +1421,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M11" s="13">
         <v>9</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>-4</v>
@@ -1341,99 +1436,165 @@
       </c>
       <c r="AB11" s="17"/>
     </row>
-    <row r="12" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M12" s="14">
         <v>10</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>-4</v>
-      </c>
-      <c r="P12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
         <v>3</v>
       </c>
       <c r="Q14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M15" s="15">
+      <c r="U14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="36">
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="37">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="38">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M16" s="15">
+      <c r="Q15" s="45">
+        <v>11</v>
+      </c>
+      <c r="R15" s="37">
+        <v>10</v>
+      </c>
+      <c r="S15" s="38">
+        <v>12</v>
+      </c>
+      <c r="U15" s="45">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="V15" s="37">
+        <v>1</v>
+      </c>
+      <c r="W15" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M16" s="39">
+        <v>0</v>
+      </c>
+      <c r="N16" s="40">
         <v>5</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M17" s="35">
+      <c r="Q16" s="46">
+        <v>11</v>
+      </c>
+      <c r="R16" s="40">
+        <v>12</v>
+      </c>
+      <c r="S16" s="41">
+        <v>13</v>
+      </c>
+      <c r="U16" s="47">
+        <v>0</v>
+      </c>
+      <c r="V16" s="43">
+        <v>11</v>
+      </c>
+      <c r="W16" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="13:19" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="39">
         <v>3</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="40">
         <v>6</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="41">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M18" s="35">
+      <c r="Q17" s="46">
+        <v>14</v>
+      </c>
+      <c r="R17" s="40">
+        <v>13</v>
+      </c>
+      <c r="S17" s="41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="39">
         <v>3</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="40">
         <v>7</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="41">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="35">
+      <c r="Q18" s="46">
+        <v>14</v>
+      </c>
+      <c r="R18" s="40">
+        <v>16</v>
+      </c>
+      <c r="S18" s="41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="39">
         <v>8</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="40">
         <v>9</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="41">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="35">
+      <c r="Q19" s="46">
+        <v>19</v>
+      </c>
+      <c r="R19" s="40">
+        <v>17</v>
+      </c>
+      <c r="S19" s="41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="13:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M20" s="42">
         <v>8</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="43">
         <v>7</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="44">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="13:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M22" s="35"/>
+      <c r="Q20" s="47">
+        <v>19</v>
+      </c>
+      <c r="R20" s="43">
+        <v>16</v>
+      </c>
+      <c r="S20" s="44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="13:19" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="13:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\yep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BCBBFD6-AE02-434D-B344-A9FE9BE5B925}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3EE3E-0FB0-4B66-B0E9-9F553499A78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{82FD7B4E-FCDA-4BD8-8B04-171F58826536}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>X</t>
   </si>
@@ -38,14 +38,36 @@
   <si>
     <t>Front</t>
   </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bot</t>
+  </si>
+  <si>
+    <t>Left Side</t>
+  </si>
+  <si>
+    <t>Right Side</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -60,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -411,18 +433,97 @@
         <color theme="9"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -475,14 +576,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,16 +686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>240195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -578,9 +709,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1143000" y="1133475"/>
-          <a:ext cx="0" cy="9525"/>
+        <a:xfrm flipH="1">
+          <a:off x="7785652" y="1689652"/>
+          <a:ext cx="91109" cy="82826"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -605,13 +736,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -655,16 +786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>210793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>183302</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180421</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>257846</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72747</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -687,14 +818,64 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2600325"/>
-          <a:ext cx="2469302" cy="2437846"/>
+          <a:off x="13409544" y="3979380"/>
+          <a:ext cx="2502432" cy="2470976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>223630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57980</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3536A6F5-800F-4773-A1BE-53DF4798CA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7769087" y="1673087"/>
+          <a:ext cx="115958" cy="107675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -997,40 +1178,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBBF6AA-5732-43A9-80DF-EECE7BB5C40A}">
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="39" max="39" width="4.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="10"/>
+      <c r="N1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11">
+      <c r="O1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="M2" s="13">
+    <row r="2" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="M2" s="12">
         <v>0</v>
       </c>
       <c r="N2">
@@ -1043,25 +1231,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="35">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12">
-        <v>5</v>
-      </c>
-      <c r="I3" s="12">
-        <v>6</v>
-      </c>
-      <c r="M3" s="14">
+    <row r="3" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="11"/>
+      <c r="M3" s="13">
         <v>1</v>
       </c>
       <c r="N3">
@@ -1073,37 +1253,36 @@
       <c r="P3">
         <v>0.5</v>
       </c>
-      <c r="X3">
+      <c r="T3">
         <v>0</v>
       </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
-      <c r="Z3" s="23"/>
+      <c r="Z3" s="22"/>
       <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="11">
+      <c r="AB3" s="10">
         <v>1</v>
       </c>
-      <c r="AI3">
+      <c r="AE3">
         <v>11</v>
       </c>
-      <c r="AQ3" s="11">
+      <c r="AM3" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="D4" s="10">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="12">
-        <v>8</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="M4" s="14">
+    <row r="4" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="M4" s="13">
         <v>2</v>
       </c>
       <c r="N4">
@@ -1115,28 +1294,33 @@
       <c r="P4">
         <v>0.5</v>
       </c>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="1"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="26"/>
-      <c r="AJ4" s="1"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="25"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
       <c r="AK4" s="2"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="3"/>
-    </row>
-    <row r="5" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="M5" s="14">
+      <c r="AL4" s="3"/>
+    </row>
+    <row r="5" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="M5" s="13">
         <v>3</v>
       </c>
       <c r="N5">
@@ -1148,48 +1332,53 @@
       <c r="P5">
         <v>0.5</v>
       </c>
-      <c r="X5" s="10">
+      <c r="T5" s="9">
         <v>2</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="32">
+      <c r="U5" s="26"/>
+      <c r="V5" s="31">
         <v>3</v>
       </c>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="29">
+      <c r="W5" s="34"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="28">
         <v>4</v>
       </c>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="12">
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="11">
         <v>5</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AE5" s="9">
         <v>15</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AG5" s="9">
         <v>14</v>
       </c>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="12">
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="11">
         <v>13</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AM5" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="M6" s="37">
+    <row r="6" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="M6" s="13">
         <v>4</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -1197,37 +1386,42 @@
       <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="X6" s="6"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="34">
+      <c r="U6" s="9">
+        <v>13</v>
+      </c>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33">
         <v>6</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="31">
+      <c r="Y6" s="30">
         <v>7</v>
       </c>
-      <c r="AD6" s="30"/>
-      <c r="AF6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AL6" s="10">
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="11">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="9">
         <v>17</v>
       </c>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="12">
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="11">
         <v>16</v>
       </c>
-      <c r="AQ6" s="6"/>
-    </row>
-    <row r="7" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="M7" s="14">
+    </row>
+    <row r="7" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="M7" s="13">
         <v>5</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1235,62 +1429,50 @@
       <c r="P7">
         <v>0.5</v>
       </c>
-      <c r="X7" s="6"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="20"/>
-      <c r="AF7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AM7" s="4"/>
-      <c r="AQ7" s="6"/>
-    </row>
-    <row r="8" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="11">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="M8" s="14">
+      <c r="V7" s="9">
+        <v>16</v>
+      </c>
+      <c r="W7" s="16"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="11">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="4"/>
+    </row>
+    <row r="8" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="M8" s="13">
         <v>6</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0.5</v>
       </c>
-      <c r="X8" s="6"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="20"/>
-      <c r="AF8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AM8" s="4"/>
-      <c r="AQ8" s="6"/>
-    </row>
-    <row r="9" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="M9" s="14">
+      <c r="V8" s="9"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="19"/>
+      <c r="AI8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="13">
         <v>7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1298,67 +1480,45 @@
       <c r="P9">
         <v>0.5</v>
       </c>
-      <c r="X9" s="6"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="20"/>
-      <c r="AF9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AM9" s="4"/>
-      <c r="AQ9" s="6"/>
-    </row>
-    <row r="10" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="M10" s="14">
+      <c r="W9" s="16"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="19"/>
+      <c r="AI9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="13">
         <v>8</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="P10">
         <v>0.5</v>
       </c>
-      <c r="X10" s="6"/>
-      <c r="AA10" s="19">
+      <c r="W10" s="18">
         <v>8</v>
       </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="21">
+      <c r="X10" s="5"/>
+      <c r="Y10" s="20">
         <v>9</v>
       </c>
-      <c r="AF10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AL10">
+      <c r="AH10">
         <v>19</v>
       </c>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="11">
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="10">
         <v>18</v>
       </c>
-      <c r="AQ10" s="6"/>
-    </row>
-    <row r="11" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="M11" s="14">
+    </row>
+    <row r="11" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="13">
         <v>9</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>-4</v>
@@ -1366,71 +1526,356 @@
       <c r="P11">
         <v>0.5</v>
       </c>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-    </row>
-    <row r="12" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="M12" s="15">
+      <c r="X11" s="17"/>
+    </row>
+    <row r="12" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="14">
         <v>10</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>-4</v>
-      </c>
-      <c r="P12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M15" s="36">
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="37">
         <v>2</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="38">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M16" s="36">
+      <c r="Q15" s="45">
+        <v>11</v>
+      </c>
+      <c r="R15" s="37">
+        <v>15</v>
+      </c>
+      <c r="S15" s="38">
+        <v>12</v>
+      </c>
+      <c r="U15" s="45">
+        <v>8</v>
+      </c>
+      <c r="V15" s="37">
+        <v>18</v>
+      </c>
+      <c r="W15" s="38">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="45">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="Z15" s="37">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="38">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="45">
         <v>5</v>
       </c>
-      <c r="O16">
+      <c r="AD15" s="37">
+        <v>15</v>
+      </c>
+      <c r="AE15" s="38">
+        <v>11</v>
+      </c>
+      <c r="AG15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="37">
         <v>1</v>
       </c>
-    </row>
+      <c r="AI15" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="39">
+        <v>0</v>
+      </c>
+      <c r="N16" s="40">
+        <v>5</v>
+      </c>
+      <c r="O16" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>11</v>
+      </c>
+      <c r="R16" s="40">
+        <v>12</v>
+      </c>
+      <c r="S16" s="41">
+        <v>10</v>
+      </c>
+      <c r="U16" s="46">
+        <v>8</v>
+      </c>
+      <c r="V16" s="40">
+        <v>19</v>
+      </c>
+      <c r="W16" s="41">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="40">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="41">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="46">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="40">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="41">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="43">
+        <v>11</v>
+      </c>
+      <c r="AI16" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="13:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="39">
+        <v>3</v>
+      </c>
+      <c r="N17" s="40">
+        <v>6</v>
+      </c>
+      <c r="O17" s="41">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>14</v>
+      </c>
+      <c r="R17" s="40">
+        <v>17</v>
+      </c>
+      <c r="S17" s="41">
+        <v>16</v>
+      </c>
+      <c r="U17" s="49">
+        <v>2</v>
+      </c>
+      <c r="V17" s="48">
+        <v>12</v>
+      </c>
+      <c r="W17" s="50">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="46">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="40">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="41">
+        <v>18</v>
+      </c>
+      <c r="AC17" s="46">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="40">
+        <v>19</v>
+      </c>
+      <c r="AE17" s="41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="13:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="39">
+        <v>3</v>
+      </c>
+      <c r="N18" s="40">
+        <v>7</v>
+      </c>
+      <c r="O18" s="41">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>14</v>
+      </c>
+      <c r="R18" s="40">
+        <v>16</v>
+      </c>
+      <c r="S18" s="41">
+        <v>13</v>
+      </c>
+      <c r="U18" s="49">
+        <v>2</v>
+      </c>
+      <c r="V18" s="48">
+        <v>13</v>
+      </c>
+      <c r="W18" s="50">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="46">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="40">
+        <v>18</v>
+      </c>
+      <c r="AA18" s="41">
+        <v>8</v>
+      </c>
+      <c r="AC18" s="46">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="40">
+        <v>17</v>
+      </c>
+      <c r="AE18" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="13:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="39">
+        <v>8</v>
+      </c>
+      <c r="N19" s="40">
+        <v>9</v>
+      </c>
+      <c r="O19" s="41">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>19</v>
+      </c>
+      <c r="R19" s="40">
+        <v>18</v>
+      </c>
+      <c r="S19" s="41">
+        <v>16</v>
+      </c>
+      <c r="U19" s="49">
+        <v>4</v>
+      </c>
+      <c r="V19" s="48">
+        <v>14</v>
+      </c>
+      <c r="W19" s="50">
+        <v>15</v>
+      </c>
+      <c r="Y19" s="49">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="48">
+        <v>13</v>
+      </c>
+      <c r="AA19" s="50">
+        <v>16</v>
+      </c>
+      <c r="AC19" s="46">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="40">
+        <v>17</v>
+      </c>
+      <c r="AE19" s="41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="13:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="42">
+        <v>8</v>
+      </c>
+      <c r="N20" s="43">
+        <v>7</v>
+      </c>
+      <c r="O20" s="44">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="47">
+        <v>19</v>
+      </c>
+      <c r="R20" s="43">
+        <v>16</v>
+      </c>
+      <c r="S20" s="44">
+        <v>17</v>
+      </c>
+      <c r="U20" s="49">
+        <v>4</v>
+      </c>
+      <c r="V20" s="48">
+        <v>15</v>
+      </c>
+      <c r="W20" s="50">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="51">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="52">
+        <v>16</v>
+      </c>
+      <c r="AA20" s="53">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="47">
+        <v>7</v>
+      </c>
+      <c r="AD20" s="43">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="13:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="15"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="50"/>
+    </row>
+    <row r="22" spans="13:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="15"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="50"/>
+    </row>
+    <row r="23" spans="13:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="49"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="50"/>
+    </row>
+    <row r="24" spans="13:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="51"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="53"/>
+    </row>
+    <row r="25" spans="13:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
